--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H2">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I2">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J2">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N2">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O2">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P2">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q2">
-        <v>4.172264350076508</v>
+        <v>19.09237380899378</v>
       </c>
       <c r="R2">
-        <v>4.172264350076508</v>
+        <v>171.831364280944</v>
       </c>
       <c r="S2">
-        <v>0.03745889371496166</v>
+        <v>0.01886659185851207</v>
       </c>
       <c r="T2">
-        <v>0.03745889371496166</v>
+        <v>0.01886659185851208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H3">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I3">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J3">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N3">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O3">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P3">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q3">
-        <v>5.897500108894719</v>
+        <v>26.27037283577866</v>
       </c>
       <c r="R3">
-        <v>5.897500108894719</v>
+        <v>236.4333555220079</v>
       </c>
       <c r="S3">
-        <v>0.05294818621907578</v>
+        <v>0.02595970554641574</v>
       </c>
       <c r="T3">
-        <v>0.05294818621907578</v>
+        <v>0.02595970554641575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H4">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I4">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J4">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N4">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O4">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P4">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q4">
-        <v>15.51026606706052</v>
+        <v>69.36238621531645</v>
       </c>
       <c r="R4">
-        <v>15.51026606706052</v>
+        <v>624.261475937848</v>
       </c>
       <c r="S4">
-        <v>0.1392523002733857</v>
+        <v>0.06854212284699804</v>
       </c>
       <c r="T4">
-        <v>0.1392523002733857</v>
+        <v>0.06854212284699804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H5">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I5">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J5">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N5">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O5">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P5">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q5">
-        <v>20.7667571907232</v>
+        <v>110.014196225528</v>
       </c>
       <c r="R5">
-        <v>20.7667571907232</v>
+        <v>990.1277660297519</v>
       </c>
       <c r="S5">
-        <v>0.1864454610594009</v>
+        <v>0.1087131940529864</v>
       </c>
       <c r="T5">
-        <v>0.1864454610594009</v>
+        <v>0.1087131940529864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H6">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I6">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J6">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N6">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O6">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P6">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q6">
-        <v>2.037108612516747</v>
+        <v>9.380941720490666</v>
       </c>
       <c r="R6">
-        <v>2.037108612516747</v>
+        <v>84.42847548441598</v>
       </c>
       <c r="S6">
-        <v>0.0182893097367377</v>
+        <v>0.009270004896175514</v>
       </c>
       <c r="T6">
-        <v>0.0182893097367377</v>
+        <v>0.009270004896175514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.462222460248666</v>
+        <v>4.376645666666667</v>
       </c>
       <c r="H7">
-        <v>0.462222460248666</v>
+        <v>13.129937</v>
       </c>
       <c r="I7">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238527</v>
       </c>
       <c r="J7">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238528</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N7">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O7">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P7">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q7">
-        <v>5.432525080070074</v>
+        <v>52.84687016818177</v>
       </c>
       <c r="R7">
-        <v>5.432525080070074</v>
+        <v>475.6218315136359</v>
       </c>
       <c r="S7">
-        <v>0.04877360648887862</v>
+        <v>0.05222191543270489</v>
       </c>
       <c r="T7">
-        <v>0.04877360648887862</v>
+        <v>0.0522219154327049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.462222460248666</v>
+        <v>4.376645666666667</v>
       </c>
       <c r="H8">
-        <v>0.462222460248666</v>
+        <v>13.129937</v>
       </c>
       <c r="I8">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238527</v>
       </c>
       <c r="J8">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238528</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N8">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O8">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P8">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q8">
-        <v>7.67887999491189</v>
+        <v>72.71526298464465</v>
       </c>
       <c r="R8">
-        <v>7.67887999491189</v>
+        <v>654.4373668618018</v>
       </c>
       <c r="S8">
-        <v>0.06894154479307509</v>
+        <v>0.0718553492792714</v>
       </c>
       <c r="T8">
-        <v>0.06894154479307509</v>
+        <v>0.07185534927927141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.462222460248666</v>
+        <v>4.376645666666667</v>
       </c>
       <c r="H9">
-        <v>0.462222460248666</v>
+        <v>13.129937</v>
       </c>
       <c r="I9">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238527</v>
       </c>
       <c r="J9">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238528</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N9">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O9">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P9">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q9">
-        <v>20.19524707400695</v>
+        <v>191.9921040488624</v>
       </c>
       <c r="R9">
-        <v>20.19524707400695</v>
+        <v>1727.928936439762</v>
       </c>
       <c r="S9">
-        <v>0.1813144015380389</v>
+        <v>0.1897216502979088</v>
       </c>
       <c r="T9">
-        <v>0.1813144015380389</v>
+        <v>0.1897216502979089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.462222460248666</v>
+        <v>4.376645666666667</v>
       </c>
       <c r="H10">
-        <v>0.462222460248666</v>
+        <v>13.129937</v>
       </c>
       <c r="I10">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238527</v>
       </c>
       <c r="J10">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238528</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N10">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O10">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P10">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q10">
-        <v>27.03949697440925</v>
+        <v>304.514567059682</v>
       </c>
       <c r="R10">
-        <v>27.03949697440925</v>
+        <v>2740.631103537138</v>
       </c>
       <c r="S10">
-        <v>0.2427625764536829</v>
+        <v>0.3009134489594048</v>
       </c>
       <c r="T10">
-        <v>0.2427625764536829</v>
+        <v>0.3009134489594048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>4.376645666666667</v>
+      </c>
+      <c r="H11">
+        <v>13.129937</v>
+      </c>
+      <c r="I11">
+        <v>0.6403713391238527</v>
+      </c>
+      <c r="J11">
+        <v>0.6403713391238528</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.932863999999999</v>
+      </c>
+      <c r="N11">
+        <v>17.798592</v>
+      </c>
+      <c r="O11">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="P11">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="Q11">
+        <v>25.96604351652266</v>
+      </c>
+      <c r="R11">
+        <v>233.694391648704</v>
+      </c>
+      <c r="S11">
+        <v>0.02565897515456279</v>
+      </c>
+      <c r="T11">
+        <v>0.0256589751545628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.142296</v>
+      </c>
+      <c r="I12">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J12">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.07474266666667</v>
+      </c>
+      <c r="N12">
+        <v>36.224228</v>
+      </c>
+      <c r="O12">
+        <v>0.08154942646895191</v>
+      </c>
+      <c r="P12">
+        <v>0.08154942646895191</v>
+      </c>
+      <c r="Q12">
+        <v>4.597643416387555</v>
+      </c>
+      <c r="R12">
+        <v>41.378790747488</v>
+      </c>
+      <c r="S12">
+        <v>0.00454327275988583</v>
+      </c>
+      <c r="T12">
+        <v>0.00454327275988583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.142296</v>
+      </c>
+      <c r="I13">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J13">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.614382</v>
+      </c>
+      <c r="N13">
+        <v>49.84314599999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1122088777077108</v>
+      </c>
+      <c r="P13">
+        <v>0.1122088777077108</v>
+      </c>
+      <c r="Q13">
+        <v>6.326180700357332</v>
+      </c>
+      <c r="R13">
+        <v>56.93562630321599</v>
+      </c>
+      <c r="S13">
+        <v>0.006251368765921314</v>
+      </c>
+      <c r="T13">
+        <v>0.006251368765921314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.142296</v>
+      </c>
+      <c r="I14">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J14">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>43.86740866666667</v>
+      </c>
+      <c r="N14">
+        <v>131.602226</v>
+      </c>
+      <c r="O14">
+        <v>0.2962681786437903</v>
+      </c>
+      <c r="P14">
+        <v>0.2962681786437903</v>
+      </c>
+      <c r="Q14">
+        <v>16.70318848343289</v>
+      </c>
+      <c r="R14">
+        <v>150.328696350896</v>
+      </c>
+      <c r="S14">
+        <v>0.01650566048022166</v>
+      </c>
+      <c r="T14">
+        <v>0.01650566048022166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.142296</v>
+      </c>
+      <c r="I15">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J15">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>69.577158</v>
+      </c>
+      <c r="N15">
+        <v>208.731474</v>
+      </c>
+      <c r="O15">
+        <v>0.4699046171727648</v>
+      </c>
+      <c r="P15">
+        <v>0.4699046171727648</v>
+      </c>
+      <c r="Q15">
+        <v>26.492569758256</v>
+      </c>
+      <c r="R15">
+        <v>238.433127824304</v>
+      </c>
+      <c r="S15">
+        <v>0.02617927482001873</v>
+      </c>
+      <c r="T15">
+        <v>0.02617927482001873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.142296</v>
+      </c>
+      <c r="I16">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J16">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.932863999999999</v>
+      </c>
+      <c r="N16">
+        <v>17.798592</v>
+      </c>
+      <c r="O16">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="P16">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="Q16">
+        <v>2.259028938581333</v>
+      </c>
+      <c r="R16">
+        <v>20.331260447232</v>
+      </c>
+      <c r="S16">
+        <v>0.002232314190323721</v>
+      </c>
+      <c r="T16">
+        <v>0.002232314190323721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.487849</v>
+      </c>
+      <c r="I17">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J17">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.07474266666667</v>
+      </c>
+      <c r="N17">
+        <v>36.224228</v>
+      </c>
+      <c r="O17">
+        <v>0.08154942646895191</v>
+      </c>
+      <c r="P17">
+        <v>0.08154942646895191</v>
+      </c>
+      <c r="Q17">
+        <v>5.98846460061911</v>
+      </c>
+      <c r="R17">
+        <v>53.89618140557199</v>
+      </c>
+      <c r="S17">
+        <v>0.005917646417849114</v>
+      </c>
+      <c r="T17">
+        <v>0.005917646417849115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.462222460248666</v>
-      </c>
-      <c r="H11">
-        <v>0.462222460248666</v>
-      </c>
-      <c r="I11">
-        <v>0.5656058489964383</v>
-      </c>
-      <c r="J11">
-        <v>0.5656058489964383</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.73842966589025</v>
-      </c>
-      <c r="N11">
-        <v>5.73842966589025</v>
-      </c>
-      <c r="O11">
-        <v>0.04210302945950056</v>
-      </c>
-      <c r="P11">
-        <v>0.04210302945950056</v>
-      </c>
-      <c r="Q11">
-        <v>2.652431078131722</v>
-      </c>
-      <c r="R11">
-        <v>2.652431078131722</v>
-      </c>
-      <c r="S11">
-        <v>0.02381371972276287</v>
-      </c>
-      <c r="T11">
-        <v>0.02381371972276287</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.487849</v>
+      </c>
+      <c r="I18">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J18">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>16.614382</v>
+      </c>
+      <c r="N18">
+        <v>49.84314599999999</v>
+      </c>
+      <c r="O18">
+        <v>0.1122088777077108</v>
+      </c>
+      <c r="P18">
+        <v>0.1122088777077108</v>
+      </c>
+      <c r="Q18">
+        <v>8.239897214772665</v>
+      </c>
+      <c r="R18">
+        <v>74.15907493295398</v>
+      </c>
+      <c r="S18">
+        <v>0.008142454116102359</v>
+      </c>
+      <c r="T18">
+        <v>0.008142454116102361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.487849</v>
+      </c>
+      <c r="I19">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J19">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>43.86740866666667</v>
+      </c>
+      <c r="N19">
+        <v>131.602226</v>
+      </c>
+      <c r="O19">
+        <v>0.2962681786437903</v>
+      </c>
+      <c r="P19">
+        <v>0.2962681786437903</v>
+      </c>
+      <c r="Q19">
+        <v>21.75602670576378</v>
+      </c>
+      <c r="R19">
+        <v>195.804240351874</v>
+      </c>
+      <c r="S19">
+        <v>0.02149874501866181</v>
+      </c>
+      <c r="T19">
+        <v>0.02149874501866181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.487849</v>
+      </c>
+      <c r="I20">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J20">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>69.577158</v>
+      </c>
+      <c r="N20">
+        <v>208.731474</v>
+      </c>
+      <c r="O20">
+        <v>0.4699046171727648</v>
+      </c>
+      <c r="P20">
+        <v>0.4699046171727648</v>
+      </c>
+      <c r="Q20">
+        <v>34.506768317714</v>
+      </c>
+      <c r="R20">
+        <v>310.560914859426</v>
+      </c>
+      <c r="S20">
+        <v>0.0340986993403549</v>
+      </c>
+      <c r="T20">
+        <v>0.03409869934035491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.487849</v>
+      </c>
+      <c r="I21">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J21">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.932863999999999</v>
+      </c>
+      <c r="N21">
+        <v>17.798592</v>
+      </c>
+      <c r="O21">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="P21">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="Q21">
+        <v>2.942401923178667</v>
+      </c>
+      <c r="R21">
+        <v>26.481617308608</v>
+      </c>
+      <c r="S21">
+        <v>0.002907605765720056</v>
+      </c>
+      <c r="T21">
+        <v>0.002907605765720057</v>
       </c>
     </row>
   </sheetData>
